--- a/Training Metrics.xlsx
+++ b/Training Metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rh2740/Documents/CPTAC-UCEC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C4AA44-079B-E54E-B3EB-E600D838F877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F05DBE4-A18B-444E-A5FF-C5EB7BAD110B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-4600" windowWidth="38400" windowHeight="21600" xr2:uid="{B3937FB2-C38A-104D-BC16-7A680228C25F}"/>
+    <workbookView xWindow="-38400" yWindow="-4140" windowWidth="38400" windowHeight="21140" activeTab="3" xr2:uid="{B3937FB2-C38A-104D-BC16-7A680228C25F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ave. Accu" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="16">
   <si>
     <t>IG</t>
   </si>
@@ -74,13 +74,16 @@
   <si>
     <t>Macro Average</t>
   </si>
+  <si>
+    <t>Data Prep:~5:20:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -155,18 +158,18 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,28 +486,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAE102A-3FBB-304A-8289-96B70467DC1A}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -629,21 +632,21 @@
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -703,21 +706,21 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
@@ -777,21 +780,21 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -851,141 +854,141 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5">
         <v>0.99</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7">
+      <c r="A37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5">
         <v>0.96</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5">
         <v>0.97</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="5">
         <v>0.95</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5">
         <v>0.98</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5">
         <v>0.98</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="5">
         <v>0.99</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5">
         <v>0.98</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="5">
         <v>0.99</v>
       </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1142,21 +1145,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1287,21 +1290,21 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -1364,21 +1367,21 @@
       <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -1438,21 +1441,21 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
@@ -1512,21 +1515,21 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
@@ -1586,141 +1589,141 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7">
-        <v>1</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7">
-        <v>1</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
+      <c r="A44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7">
-        <v>1</v>
-      </c>
-      <c r="E45" s="7">
-        <v>1</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7">
-        <v>1</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7">
-        <v>1</v>
-      </c>
-      <c r="E47" s="7">
-        <v>1</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7">
-        <v>1</v>
-      </c>
-      <c r="E48" s="7">
-        <v>1</v>
-      </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1926,21 +1929,21 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2074,21 +2077,21 @@
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -2148,21 +2151,21 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
@@ -2222,21 +2225,21 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
@@ -2296,140 +2299,140 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7">
-        <v>1</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7">
+      <c r="A37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5">
         <v>0.99</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5">
         <v>0.99</v>
       </c>
-      <c r="E38" s="7">
-        <v>1</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7">
-        <v>1</v>
-      </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7">
-        <v>1</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7">
-        <v>1</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2579,8 +2582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA1689E-B943-BD4C-84B0-B60A9AE2F67C}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2659,121 +2662,126 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6">
         <v>0.48680555555555555</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6">
         <v>0.8316203703703704</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
         <v>0.78295138888888882</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>0.86512731481481486</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
         <v>1.2711921296296296</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6">
         <v>0.86114583333333339</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>1.0515625</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
         <v>1.3228472222222223</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>1.6747453703703703</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>

--- a/Training Metrics.xlsx
+++ b/Training Metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rh2740/Documents/CPTAC-UCEC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F05DBE4-A18B-444E-A5FF-C5EB7BAD110B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE287F9C-75DC-0E48-A316-ED8D1FCDBA74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-4140" windowWidth="38400" windowHeight="21140" activeTab="3" xr2:uid="{B3937FB2-C38A-104D-BC16-7A680228C25F}"/>
+    <workbookView xWindow="-38400" yWindow="-4600" windowWidth="38400" windowHeight="21600" xr2:uid="{B3937FB2-C38A-104D-BC16-7A680228C25F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ave. Accu" sheetId="3" r:id="rId1"/>
@@ -75,7 +75,7 @@
     <t>Macro Average</t>
   </si>
   <si>
-    <t>Data Prep:~5:20:00</t>
+    <t>Data Prep:~5:00:00</t>
   </si>
 </sst>
 </file>
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAE102A-3FBB-304A-8289-96B70467DC1A}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,6 +561,9 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="2">
+        <v>9552</v>
+      </c>
       <c r="C3" s="2">
         <v>19104</v>
       </c>
@@ -569,6 +572,38 @@
       </c>
       <c r="E3" s="2">
         <v>38208</v>
+      </c>
+      <c r="F3" s="2">
+        <f>B3*5</f>
+        <v>47760</v>
+      </c>
+      <c r="G3" s="2">
+        <f>B3*6</f>
+        <v>57312</v>
+      </c>
+      <c r="H3" s="2">
+        <f>B3*7</f>
+        <v>66864</v>
+      </c>
+      <c r="I3" s="2">
+        <f>B3*8</f>
+        <v>76416</v>
+      </c>
+      <c r="J3" s="2">
+        <f>B3*9</f>
+        <v>85968</v>
+      </c>
+      <c r="K3" s="2">
+        <f>B3*10</f>
+        <v>95520</v>
+      </c>
+      <c r="L3" s="2">
+        <f>B3*11</f>
+        <v>105072</v>
+      </c>
+      <c r="M3" s="2">
+        <f>B3*12</f>
+        <v>114624</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1138,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE2A6CD-50C2-294B-8E88-D07C665A6906}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1213,7 +1248,9 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>9552</v>
+      </c>
       <c r="C3" s="2">
         <v>19104</v>
       </c>
@@ -1223,14 +1260,30 @@
       <c r="E3" s="2">
         <v>38208</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="F3" s="2">
+        <v>47760</v>
+      </c>
+      <c r="G3" s="2">
+        <v>57312</v>
+      </c>
+      <c r="H3" s="2">
+        <v>66864</v>
+      </c>
+      <c r="I3" s="2">
+        <v>76416</v>
+      </c>
+      <c r="J3" s="2">
+        <v>85968</v>
+      </c>
+      <c r="K3" s="2">
+        <v>95520</v>
+      </c>
+      <c r="L3" s="2">
+        <v>105072</v>
+      </c>
+      <c r="M3" s="2">
+        <v>114624</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1923,7 +1976,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="B3" sqref="B3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1997,7 +2050,9 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>9552</v>
+      </c>
       <c r="C3" s="2">
         <v>19104</v>
       </c>
@@ -2007,14 +2062,30 @@
       <c r="E3" s="2">
         <v>38208</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="F3" s="2">
+        <v>47760</v>
+      </c>
+      <c r="G3" s="2">
+        <v>57312</v>
+      </c>
+      <c r="H3" s="2">
+        <v>66864</v>
+      </c>
+      <c r="I3" s="2">
+        <v>76416</v>
+      </c>
+      <c r="J3" s="2">
+        <v>85968</v>
+      </c>
+      <c r="K3" s="2">
+        <v>95520</v>
+      </c>
+      <c r="L3" s="2">
+        <v>105072</v>
+      </c>
+      <c r="M3" s="2">
+        <v>114624</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2582,8 +2653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA1689E-B943-BD4C-84B0-B60A9AE2F67C}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2648,6 +2719,9 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="2">
+        <v>9552</v>
+      </c>
       <c r="C2" s="2">
         <v>19104</v>
       </c>
@@ -2656,6 +2730,30 @@
       </c>
       <c r="E2" s="2">
         <v>38208</v>
+      </c>
+      <c r="F2" s="2">
+        <v>47760</v>
+      </c>
+      <c r="G2" s="2">
+        <v>57312</v>
+      </c>
+      <c r="H2" s="2">
+        <v>66864</v>
+      </c>
+      <c r="I2" s="2">
+        <v>76416</v>
+      </c>
+      <c r="J2" s="2">
+        <v>85968</v>
+      </c>
+      <c r="K2" s="2">
+        <v>95520</v>
+      </c>
+      <c r="L2" s="2">
+        <v>105072</v>
+      </c>
+      <c r="M2" s="2">
+        <v>114624</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">

--- a/Training Metrics.xlsx
+++ b/Training Metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rh2740/Documents/CPTAC-UCEC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE287F9C-75DC-0E48-A316-ED8D1FCDBA74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F569A8AB-FD88-3647-9398-68D3E5FFA3AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-4600" windowWidth="38400" windowHeight="21600" xr2:uid="{B3937FB2-C38A-104D-BC16-7A680228C25F}"/>
+    <workbookView xWindow="-38400" yWindow="-4600" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{B3937FB2-C38A-104D-BC16-7A680228C25F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ave. Accu" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Time" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -75,7 +76,7 @@
     <t>Macro Average</t>
   </si>
   <si>
-    <t>Data Prep:~5:00:00</t>
+    <t>Data Prep:~3:30:00</t>
   </si>
 </sst>
 </file>
@@ -486,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAE102A-3FBB-304A-8289-96B70467DC1A}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,57 +611,72 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0.98</v>
+      <c r="B4">
+        <v>0.49736999999999998</v>
+      </c>
+      <c r="M4">
+        <v>0.60895999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>0.97</v>
+      <c r="B5">
+        <v>0.46722000000000002</v>
+      </c>
+      <c r="M5">
+        <v>0.65519000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>0.98</v>
-      </c>
-      <c r="E6">
-        <v>0.98</v>
+      <c r="B6">
+        <v>0.52685000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7">
-        <v>0.98</v>
+      <c r="B7">
+        <v>0.54493000000000003</v>
+      </c>
+      <c r="G7">
+        <v>0.56806999999999996</v>
+      </c>
+      <c r="M7">
+        <v>0.61255999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>0.99</v>
-      </c>
-      <c r="E8">
-        <v>0.99</v>
+      <c r="B8">
+        <v>0.53219000000000005</v>
+      </c>
+      <c r="G8">
+        <v>0.63688999999999996</v>
+      </c>
+      <c r="M8">
+        <v>0.64326000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9">
-        <v>0.99</v>
-      </c>
-      <c r="E9">
-        <v>0.99</v>
+      <c r="B9">
+        <v>0.51058999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.61533000000000004</v>
+      </c>
+      <c r="M9">
+        <v>0.63744000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -687,57 +703,72 @@
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>0.98</v>
+      <c r="B12">
+        <v>0.52088000000000001</v>
+      </c>
+      <c r="M12">
+        <v>0.58425000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D13">
-        <v>0.98</v>
+      <c r="B13">
+        <v>0.53935999999999995</v>
+      </c>
+      <c r="M13">
+        <v>0.55552999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D14">
-        <v>0.97</v>
-      </c>
-      <c r="E14">
-        <v>0.99</v>
+      <c r="B14">
+        <v>0.52217000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E15">
-        <v>0.99</v>
+      <c r="B15">
+        <v>0.52724000000000004</v>
+      </c>
+      <c r="G15">
+        <v>0.57262999999999997</v>
+      </c>
+      <c r="M15">
+        <v>0.38974999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D16">
-        <v>0.99</v>
-      </c>
-      <c r="E16">
-        <v>0.99</v>
+      <c r="B16">
+        <v>0.53017999999999998</v>
+      </c>
+      <c r="G16">
+        <v>0.58777999999999997</v>
+      </c>
+      <c r="M16">
+        <v>0.60663999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D17">
-        <v>0.99</v>
-      </c>
-      <c r="E17">
-        <v>0.99</v>
+      <c r="B17">
+        <v>0.56423000000000001</v>
+      </c>
+      <c r="G17">
+        <v>0.53864000000000001</v>
+      </c>
+      <c r="M17">
+        <v>0.53207000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -761,57 +792,72 @@
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C20">
-        <v>0.97</v>
+      <c r="B20">
+        <v>0.48620000000000002</v>
+      </c>
+      <c r="M20">
+        <v>0.61304000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D21">
-        <v>0.97</v>
+      <c r="B21">
+        <v>0.44168000000000002</v>
+      </c>
+      <c r="M21">
+        <v>0.72369000000000006</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D22">
-        <v>0.99</v>
-      </c>
-      <c r="E22">
-        <v>0.98</v>
+      <c r="B22">
+        <v>0.53308999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E23">
-        <v>0.97</v>
+      <c r="B23">
+        <v>0.52951000000000004</v>
+      </c>
+      <c r="G23">
+        <v>0.55161000000000004</v>
+      </c>
+      <c r="M23">
+        <v>0.71802999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D24">
-        <v>0.99</v>
-      </c>
-      <c r="E24">
-        <v>0.99</v>
+      <c r="B24">
+        <v>0.60621000000000003</v>
+      </c>
+      <c r="G24">
+        <v>0.64470000000000005</v>
+      </c>
+      <c r="M24">
+        <v>0.67079</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D25">
-        <v>0.98</v>
-      </c>
-      <c r="E25">
-        <v>0.98</v>
+      <c r="B25">
+        <v>0.53915000000000002</v>
+      </c>
+      <c r="G25">
+        <v>0.64980000000000004</v>
+      </c>
+      <c r="M25">
+        <v>0.67654000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -835,57 +881,72 @@
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C28">
-        <v>0.97</v>
+      <c r="B28">
+        <v>0.46006999999999998</v>
+      </c>
+      <c r="M28">
+        <v>0.60172999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29">
-        <v>0.97</v>
+      <c r="B29">
+        <v>0.43232999999999999</v>
+      </c>
+      <c r="M29">
+        <v>0.61697999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D30">
-        <v>0.97</v>
-      </c>
-      <c r="E30">
-        <v>0.98</v>
+      <c r="B30">
+        <v>0.49779000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E31">
-        <v>0.99</v>
+      <c r="B31">
+        <v>0.58182999999999996</v>
+      </c>
+      <c r="G31">
+        <v>0.56193000000000004</v>
+      </c>
+      <c r="M31">
+        <v>0.66059999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D32">
-        <v>0.99</v>
-      </c>
-      <c r="E32">
-        <v>0.99</v>
+      <c r="B32">
+        <v>0.35610999999999998</v>
+      </c>
+      <c r="G32">
+        <v>0.65488999999999997</v>
+      </c>
+      <c r="M32">
+        <v>0.60546</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D33">
-        <v>0.99</v>
-      </c>
-      <c r="E33">
-        <v>0.98</v>
+      <c r="B33">
+        <v>0.37039</v>
+      </c>
+      <c r="G33">
+        <v>0.63090999999999997</v>
+      </c>
+      <c r="M33">
+        <v>0.66559000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -909,10 +970,10 @@
       <c r="A36" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5">
-        <v>0.99</v>
-      </c>
+      <c r="B36" s="5">
+        <v>0.82298000000000004</v>
+      </c>
+      <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -922,17 +983,19 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
+      <c r="M36" s="5">
+        <v>0.96240999999999999</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="5"/>
+      <c r="B37" s="5">
+        <v>0.37944</v>
+      </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="5">
-        <v>0.96</v>
-      </c>
+      <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -941,20 +1004,20 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
+      <c r="M37" s="5">
+        <v>0.94381999999999999</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="5"/>
+      <c r="B38" s="5">
+        <v>0.76966000000000001</v>
+      </c>
       <c r="C38" s="5"/>
-      <c r="D38" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="E38" s="5">
-        <v>0.95</v>
-      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -968,62 +1031,70 @@
       <c r="A39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="5"/>
+      <c r="B39" s="5">
+        <v>0.76493</v>
+      </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="5">
-        <v>0.98</v>
-      </c>
+      <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="G39" s="5">
+        <v>0.95692999999999995</v>
+      </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
+      <c r="M39" s="5">
+        <v>0.91369999999999996</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="5"/>
+      <c r="B40" s="5">
+        <v>0.75375999999999999</v>
+      </c>
       <c r="C40" s="5"/>
-      <c r="D40" s="5">
-        <v>0.98</v>
-      </c>
-      <c r="E40" s="5">
-        <v>0.99</v>
-      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="G40" s="5">
+        <v>0.98689000000000004</v>
+      </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
+      <c r="M40" s="5">
+        <v>0.95513999999999999</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="5"/>
+      <c r="B41" s="5">
+        <v>0.58021999999999996</v>
+      </c>
       <c r="C41" s="5"/>
-      <c r="D41" s="5">
-        <v>0.98</v>
-      </c>
-      <c r="E41" s="5">
-        <v>0.99</v>
-      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+      <c r="G41" s="5">
+        <v>0.77424999999999999</v>
+      </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
+      <c r="M41" s="5">
+        <v>0.97019999999999995</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1174,7 +1245,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M3"/>
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1289,57 +1360,72 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="B4">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="M4">
+        <v>0.83496999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="B5">
+        <v>0.74751000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.83918999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+      <c r="B6">
+        <v>0.75627999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7">
-        <v>1</v>
+      <c r="B7">
+        <v>0.77458000000000005</v>
+      </c>
+      <c r="G7">
+        <v>0.81703000000000003</v>
+      </c>
+      <c r="M7">
+        <v>0.82308000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+      <c r="B8">
+        <v>0.76604000000000005</v>
+      </c>
+      <c r="G8">
+        <v>0.82876000000000005</v>
+      </c>
+      <c r="M8">
+        <v>0.84724999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+      <c r="B9">
+        <v>0.74934999999999996</v>
+      </c>
+      <c r="G9">
+        <v>0.82594000000000001</v>
+      </c>
+      <c r="M9">
+        <v>0.83414999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1363,57 +1449,72 @@
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="B11">
+        <v>0.75107999999999997</v>
+      </c>
+      <c r="M11">
+        <v>0.82260999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>1</v>
+      <c r="B12">
+        <v>0.70669000000000004</v>
+      </c>
+      <c r="M12">
+        <v>0.80837000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
+      <c r="B13">
+        <v>0.74400999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14">
-        <v>1</v>
+      <c r="B14">
+        <v>0.75922000000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.81159000000000003</v>
+      </c>
+      <c r="M14">
+        <v>0.80254000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
+      <c r="B15">
+        <v>0.75761999999999996</v>
+      </c>
+      <c r="G15">
+        <v>0.81501000000000001</v>
+      </c>
+      <c r="M15">
+        <v>0.82633999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
+      <c r="B16">
+        <v>0.73048999999999997</v>
+      </c>
+      <c r="G16">
+        <v>0.80691000000000002</v>
+      </c>
+      <c r="M16">
+        <v>0.81027000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1440,57 +1541,72 @@
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>1</v>
+      <c r="B19">
+        <v>0.70448999999999995</v>
+      </c>
+      <c r="M19">
+        <v>0.80810999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D20">
-        <v>1</v>
+      <c r="B20">
+        <v>0.62216000000000005</v>
+      </c>
+      <c r="M20">
+        <v>0.71682999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
+      <c r="B21">
+        <v>0.64715999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22">
-        <v>1</v>
+      <c r="B22">
+        <v>0.67344999999999999</v>
+      </c>
+      <c r="G22">
+        <v>0.77917999999999998</v>
+      </c>
+      <c r="M22">
+        <v>0.76920999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
+      <c r="B23">
+        <v>0.66134000000000004</v>
+      </c>
+      <c r="G23">
+        <v>0.78505000000000003</v>
+      </c>
+      <c r="M23">
+        <v>0.81220000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
+      <c r="B24">
+        <v>0.65822999999999998</v>
+      </c>
+      <c r="G24">
+        <v>0.74419000000000002</v>
+      </c>
+      <c r="M24">
+        <v>0.75587000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -1514,57 +1630,72 @@
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C27">
-        <v>1</v>
+      <c r="B27">
+        <v>0.56855</v>
+      </c>
+      <c r="M27">
+        <v>0.71284999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D28">
-        <v>1</v>
+      <c r="B28">
+        <v>0.55747999999999998</v>
+      </c>
+      <c r="M28">
+        <v>0.72067000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
+      <c r="B29">
+        <v>0.57493000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E30">
-        <v>1</v>
+      <c r="B30">
+        <v>0.61172000000000004</v>
+      </c>
+      <c r="G30">
+        <v>0.66552</v>
+      </c>
+      <c r="M30">
+        <v>0.68927000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
+      <c r="B31">
+        <v>0.60773999999999995</v>
+      </c>
+      <c r="G31">
+        <v>0.67747000000000002</v>
+      </c>
+      <c r="M31">
+        <v>0.70684999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
+      <c r="B32">
+        <v>0.57147999999999999</v>
+      </c>
+      <c r="G32">
+        <v>0.69860999999999995</v>
+      </c>
+      <c r="M32">
+        <v>0.68301999999999996</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -1588,57 +1719,72 @@
       <c r="A35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C35">
-        <v>1</v>
+      <c r="B35">
+        <v>0.76707000000000003</v>
+      </c>
+      <c r="M35">
+        <v>0.77483999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D36">
-        <v>1</v>
+      <c r="B36">
+        <v>0.72396000000000005</v>
+      </c>
+      <c r="M36">
+        <v>0.80001999999999995</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
+      <c r="B37">
+        <v>0.79607000000000006</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E38">
-        <v>1</v>
+      <c r="B38">
+        <v>0.78937000000000002</v>
+      </c>
+      <c r="G38">
+        <v>0.80859000000000003</v>
+      </c>
+      <c r="M38">
+        <v>0.77261000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
+      <c r="B39">
+        <v>0.80191000000000001</v>
+      </c>
+      <c r="G39">
+        <v>0.79808000000000001</v>
+      </c>
+      <c r="M39">
+        <v>0.78907000000000005</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
+      <c r="B40">
+        <v>0.77164999999999995</v>
+      </c>
+      <c r="G40">
+        <v>0.80520000000000003</v>
+      </c>
+      <c r="M40">
+        <v>0.80581999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -1662,10 +1808,10 @@
       <c r="A43" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5">
-        <v>1</v>
-      </c>
+      <c r="B43" s="5">
+        <v>0.96411000000000002</v>
+      </c>
+      <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -1675,17 +1821,19 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
+      <c r="M43" s="5">
+        <v>0.99453000000000003</v>
+      </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="5"/>
+      <c r="B44" s="5">
+        <v>0.92305999999999999</v>
+      </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="5">
-        <v>1</v>
-      </c>
+      <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -1694,20 +1842,20 @@
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
+      <c r="M44" s="5">
+        <v>0.99587000000000003</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="5"/>
+      <c r="B45" s="5">
+        <v>0.95777999999999996</v>
+      </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="5">
-        <v>1</v>
-      </c>
-      <c r="E45" s="5">
-        <v>1</v>
-      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -1721,62 +1869,70 @@
       <c r="A46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="5"/>
+      <c r="B46" s="5">
+        <v>0.96226</v>
+      </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="5">
-        <v>1</v>
-      </c>
+      <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
+      <c r="G46" s="5">
+        <v>0.99297000000000002</v>
+      </c>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
+      <c r="M46" s="5">
+        <v>0.97899000000000003</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="5"/>
+      <c r="B47" s="5">
+        <v>0.95936999999999995</v>
+      </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="5">
-        <v>1</v>
-      </c>
-      <c r="E47" s="5">
-        <v>1</v>
-      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="G47" s="5">
+        <v>0.99934000000000001</v>
+      </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
+      <c r="M47" s="5">
+        <v>0.99714000000000003</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="5"/>
+      <c r="B48" s="5">
+        <v>0.92049999999999998</v>
+      </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="5">
-        <v>1</v>
-      </c>
-      <c r="E48" s="5">
-        <v>1</v>
-      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
+      <c r="G48" s="5">
+        <v>0.97953000000000001</v>
+      </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
+      <c r="M48" s="5">
+        <v>0.99628000000000005</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1975,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074045EE-D112-AF48-A364-D9EBDC864E02}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M3"/>
+    <sheetView topLeftCell="A21" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2091,57 +2247,72 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="B4">
+        <v>0.50188999999999995</v>
+      </c>
+      <c r="M4">
+        <v>0.64641999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="B5">
+        <v>0.43615999999999999</v>
+      </c>
+      <c r="M5">
+        <v>0.63570000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+      <c r="B6">
+        <v>0.47776999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7">
-        <v>1</v>
+      <c r="B7">
+        <v>0.53156000000000003</v>
+      </c>
+      <c r="G7">
+        <v>0.58748999999999996</v>
+      </c>
+      <c r="M7">
+        <v>0.59192</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+      <c r="B8">
+        <v>0.50627</v>
+      </c>
+      <c r="G8">
+        <v>0.60692000000000002</v>
+      </c>
+      <c r="M8">
+        <v>0.63983999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+      <c r="B9">
+        <v>0.47392000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.62270999999999999</v>
+      </c>
+      <c r="M9">
+        <v>0.62455000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -2168,57 +2339,72 @@
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="B12">
+        <v>0.50778000000000001</v>
+      </c>
+      <c r="M12">
+        <v>0.67184999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D13">
-        <v>1</v>
+      <c r="B13">
+        <v>0.36098999999999998</v>
+      </c>
+      <c r="M13">
+        <v>0.62756999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
+      <c r="B14">
+        <v>0.46905999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E15">
-        <v>1</v>
+      <c r="B15">
+        <v>0.51097999999999999</v>
+      </c>
+      <c r="G15">
+        <v>0.58897999999999995</v>
+      </c>
+      <c r="M15">
+        <v>0.63278999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
+      <c r="B16">
+        <v>0.48319000000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.60753999999999997</v>
+      </c>
+      <c r="M16">
+        <v>0.67454000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
+      <c r="B17">
+        <v>0.49795</v>
+      </c>
+      <c r="G17">
+        <v>0.60550999999999999</v>
+      </c>
+      <c r="M17">
+        <v>0.60938000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -2242,57 +2428,72 @@
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C20">
-        <v>1</v>
+      <c r="B20">
+        <v>0.53490000000000004</v>
+      </c>
+      <c r="M20">
+        <v>0.68176999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D21">
-        <v>1</v>
+      <c r="B21">
+        <v>0.50629000000000002</v>
+      </c>
+      <c r="M21">
+        <v>0.61604000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
+      <c r="B22">
+        <v>0.49775000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E23">
-        <v>1</v>
+      <c r="B23">
+        <v>0.54574</v>
+      </c>
+      <c r="G23">
+        <v>0.62321000000000004</v>
+      </c>
+      <c r="M23">
+        <v>0.64032</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
+      <c r="B24">
+        <v>0.56264999999999998</v>
+      </c>
+      <c r="G24">
+        <v>0.60890999999999995</v>
+      </c>
+      <c r="M24">
+        <v>0.62795000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
+      <c r="B25">
+        <v>0.49167</v>
+      </c>
+      <c r="G25">
+        <v>0.65076999999999996</v>
+      </c>
+      <c r="M25">
+        <v>0.63905000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -2316,57 +2517,72 @@
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C28">
-        <v>1</v>
+      <c r="B28">
+        <v>0.56908999999999998</v>
+      </c>
+      <c r="M28">
+        <v>0.58316999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29">
-        <v>1</v>
+      <c r="B29">
+        <v>0.53391</v>
+      </c>
+      <c r="M29">
+        <v>0.68047999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
+      <c r="B30">
+        <v>0.60289999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E31">
-        <v>1</v>
+      <c r="B31">
+        <v>0.63888</v>
+      </c>
+      <c r="G31">
+        <v>0.56872999999999996</v>
+      </c>
+      <c r="M31">
+        <v>0.56061000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
+      <c r="B32">
+        <v>0.60104999999999997</v>
+      </c>
+      <c r="G32">
+        <v>0.61714000000000002</v>
+      </c>
+      <c r="M32">
+        <v>0.64949999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
+      <c r="B33">
+        <v>0.53059000000000001</v>
+      </c>
+      <c r="G33">
+        <v>0.65215000000000001</v>
+      </c>
+      <c r="M33">
+        <v>0.60894999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -2390,10 +2606,10 @@
       <c r="A36" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5">
-        <v>1</v>
-      </c>
+      <c r="B36" s="5">
+        <v>0.57303999999999999</v>
+      </c>
+      <c r="C36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -2402,17 +2618,19 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
+      <c r="M36" s="5">
+        <v>0.77815000000000001</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="5"/>
+      <c r="B37" s="5">
+        <v>0.27712999999999999</v>
+      </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="5">
-        <v>0.99</v>
-      </c>
+      <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -2421,20 +2639,20 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
+      <c r="M37" s="5">
+        <v>0.88961999999999997</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="5"/>
+      <c r="B38" s="5">
+        <v>0.48204000000000002</v>
+      </c>
       <c r="C38" s="5"/>
-      <c r="D38" s="5">
-        <v>0.99</v>
-      </c>
-      <c r="E38" s="5">
-        <v>1</v>
-      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -2448,62 +2666,70 @@
       <c r="A39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="5"/>
+      <c r="B39" s="5">
+        <v>0.57055</v>
+      </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="5">
-        <v>1</v>
-      </c>
+      <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="G39" s="5">
+        <v>0.91076999999999997</v>
+      </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
+      <c r="M39" s="5">
+        <v>0.49858000000000002</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="5"/>
+      <c r="B40" s="5">
+        <v>0.42410999999999999</v>
+      </c>
       <c r="C40" s="5"/>
-      <c r="D40" s="5">
-        <v>1</v>
-      </c>
-      <c r="E40" s="5">
-        <v>1</v>
-      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="G40" s="5">
+        <v>0.97938000000000003</v>
+      </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
+      <c r="M40" s="5">
+        <v>0.87802999999999998</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="5"/>
+      <c r="B41" s="5">
+        <v>0.27778999999999998</v>
+      </c>
       <c r="C41" s="5"/>
-      <c r="D41" s="5">
-        <v>1</v>
-      </c>
-      <c r="E41" s="5">
-        <v>1</v>
-      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+      <c r="G41" s="5">
+        <v>0.72377000000000002</v>
+      </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
+      <c r="M41" s="5">
+        <v>0.97179000000000004</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2653,8 +2879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA1689E-B943-BD4C-84B0-B60A9AE2F67C}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2760,121 +2986,151 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="6">
+        <v>0.39878472222222222</v>
+      </c>
       <c r="C3" s="6">
-        <v>0.48680555555555555</v>
+        <v>0.66052083333333333</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="G3" s="6">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="M3" s="6">
+        <v>2.6406828703703704</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6">
-        <v>0.8316203703703704</v>
-      </c>
+      <c r="B4" s="6">
+        <v>0.46162037037037035</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="6">
+        <v>3.281759259259259</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
-        <v>0.78295138888888882</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.86512731481481486</v>
-      </c>
+      <c r="B5" s="6">
+        <v>0.44526620370370368</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="6">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="M5" s="6">
+        <v>0.14583333333333334</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="6">
+        <v>1.038125</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="6">
-        <v>1.2711921296296296</v>
-      </c>
+      <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6">
+        <v>2.3510185185185186</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="M6" s="6">
+        <v>4.7519444444444447</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6">
-        <v>0.86114583333333339</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1.0515625</v>
-      </c>
+      <c r="B7" s="6">
+        <v>0.46315972222222218</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6">
+        <v>1.823761574074074</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="M7" s="6">
+        <v>3.4575347222222224</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6">
-        <v>1.3228472222222223</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1.6747453703703703</v>
-      </c>
+      <c r="B8" s="6">
+        <v>1.0370601851851851</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6">
+        <v>2.7142476851851853</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="M8" s="6">
+        <v>5.2660763888888891</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">

--- a/Training Metrics.xlsx
+++ b/Training Metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rh2740/Documents/CPTAC-UCEC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F569A8AB-FD88-3647-9398-68D3E5FFA3AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D954B122-09E1-BB44-AC68-A71734569400}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-4600" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{B3937FB2-C38A-104D-BC16-7A680228C25F}"/>
+    <workbookView xWindow="-38400" yWindow="-4600" windowWidth="38400" windowHeight="21600" xr2:uid="{B3937FB2-C38A-104D-BC16-7A680228C25F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ave. Accu" sheetId="3" r:id="rId1"/>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAE102A-3FBB-304A-8289-96B70467DC1A}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,6 +614,9 @@
       <c r="B4">
         <v>0.49736999999999998</v>
       </c>
+      <c r="C4">
+        <v>0.56115000000000004</v>
+      </c>
       <c r="M4">
         <v>0.60895999999999995</v>
       </c>
@@ -634,7 +637,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.52685000000000004</v>
+        <v>0.58077999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -706,6 +709,9 @@
       <c r="B12">
         <v>0.52088000000000001</v>
       </c>
+      <c r="C12">
+        <v>0.53286999999999995</v>
+      </c>
       <c r="M12">
         <v>0.58425000000000005</v>
       </c>
@@ -726,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>0.52217000000000002</v>
+        <v>0.53144000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -795,6 +801,9 @@
       <c r="B20">
         <v>0.48620000000000002</v>
       </c>
+      <c r="C20">
+        <v>0.53779999999999994</v>
+      </c>
       <c r="M20">
         <v>0.61304000000000003</v>
       </c>
@@ -815,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>0.53308999999999995</v>
+        <v>0.63505</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -884,6 +893,9 @@
       <c r="B28">
         <v>0.46006999999999998</v>
       </c>
+      <c r="C28">
+        <v>0.62932999999999995</v>
+      </c>
       <c r="M28">
         <v>0.60172999999999999</v>
       </c>
@@ -904,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="B30">
-        <v>0.49779000000000001</v>
+        <v>0.51104000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -973,7 +985,9 @@
       <c r="B36" s="5">
         <v>0.82298000000000004</v>
       </c>
-      <c r="C36" s="5"/>
+      <c r="C36" s="5">
+        <v>0.78342999999999996</v>
+      </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -1013,7 +1027,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="5">
-        <v>0.76966000000000001</v>
+        <v>0.80374000000000001</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1244,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE2A6CD-50C2-294B-8E88-D07C665A6906}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView topLeftCell="A22" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1363,6 +1377,9 @@
       <c r="B4">
         <v>0.76249999999999996</v>
       </c>
+      <c r="C4">
+        <v>0.80798000000000003</v>
+      </c>
       <c r="M4">
         <v>0.83496999999999999</v>
       </c>
@@ -1383,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.75627999999999995</v>
+        <v>0.78966999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1452,6 +1469,9 @@
       <c r="B11">
         <v>0.75107999999999997</v>
       </c>
+      <c r="C11">
+        <v>0.79781000000000002</v>
+      </c>
       <c r="M11">
         <v>0.82260999999999995</v>
       </c>
@@ -1472,7 +1492,7 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>0.74400999999999995</v>
+        <v>0.7651</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1544,6 +1564,9 @@
       <c r="B19">
         <v>0.70448999999999995</v>
       </c>
+      <c r="C19">
+        <v>0.76907999999999999</v>
+      </c>
       <c r="M19">
         <v>0.80810999999999999</v>
       </c>
@@ -1564,7 +1587,7 @@
         <v>2</v>
       </c>
       <c r="B21">
-        <v>0.64715999999999996</v>
+        <v>0.63446000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -1633,6 +1656,9 @@
       <c r="B27">
         <v>0.56855</v>
       </c>
+      <c r="C27">
+        <v>0.64458000000000004</v>
+      </c>
       <c r="M27">
         <v>0.71284999999999998</v>
       </c>
@@ -1653,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="B29">
-        <v>0.57493000000000005</v>
+        <v>0.62407999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -1722,6 +1748,9 @@
       <c r="B35">
         <v>0.76707000000000003</v>
       </c>
+      <c r="C35">
+        <v>0.79578000000000004</v>
+      </c>
       <c r="M35">
         <v>0.77483999999999997</v>
       </c>
@@ -1742,7 +1771,7 @@
         <v>2</v>
       </c>
       <c r="B37">
-        <v>0.79607000000000006</v>
+        <v>0.81701999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -1811,7 +1840,9 @@
       <c r="B43" s="5">
         <v>0.96411000000000002</v>
       </c>
-      <c r="C43" s="5"/>
+      <c r="C43" s="5">
+        <v>0.98170999999999997</v>
+      </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -1851,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="5">
-        <v>0.95777999999999996</v>
+        <v>0.98475000000000001</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -2131,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074045EE-D112-AF48-A364-D9EBDC864E02}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView topLeftCell="A15" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2250,6 +2281,9 @@
       <c r="B4">
         <v>0.50188999999999995</v>
       </c>
+      <c r="C4">
+        <v>0.59538999999999997</v>
+      </c>
       <c r="M4">
         <v>0.64641999999999999</v>
       </c>
@@ -2270,7 +2304,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.47776999999999997</v>
+        <v>0.51749000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -2342,6 +2376,9 @@
       <c r="B12">
         <v>0.50778000000000001</v>
       </c>
+      <c r="C12">
+        <v>0.60633000000000004</v>
+      </c>
       <c r="M12">
         <v>0.67184999999999995</v>
       </c>
@@ -2362,7 +2399,7 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>0.46905999999999998</v>
+        <v>0.46948000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -2431,6 +2468,9 @@
       <c r="B20">
         <v>0.53490000000000004</v>
       </c>
+      <c r="C20">
+        <v>0.62653000000000003</v>
+      </c>
       <c r="M20">
         <v>0.68176999999999999</v>
       </c>
@@ -2451,7 +2491,7 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>0.49775000000000003</v>
+        <v>0.54296999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -2520,6 +2560,9 @@
       <c r="B28">
         <v>0.56908999999999998</v>
       </c>
+      <c r="C28">
+        <v>0.60816000000000003</v>
+      </c>
       <c r="M28">
         <v>0.58316999999999997</v>
       </c>
@@ -2540,7 +2583,7 @@
         <v>2</v>
       </c>
       <c r="B30">
-        <v>0.60289999999999999</v>
+        <v>0.62414999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -2609,7 +2652,9 @@
       <c r="B36" s="5">
         <v>0.57303999999999999</v>
       </c>
-      <c r="C36" s="5"/>
+      <c r="C36" s="5">
+        <v>0.78152999999999995</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -2648,7 +2693,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="5">
-        <v>0.48204000000000002</v>
+        <v>0.77154999999999996</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2879,7 +2924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA1689E-B943-BD4C-84B0-B60A9AE2F67C}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
+    <sheetView zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/Training Metrics.xlsx
+++ b/Training Metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rh2740/Documents/CPTAC-UCEC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D954B122-09E1-BB44-AC68-A71734569400}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC72FC5-B787-4A41-94CC-8D431A2158A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-4600" windowWidth="38400" windowHeight="21600" xr2:uid="{B3937FB2-C38A-104D-BC16-7A680228C25F}"/>
+    <workbookView xWindow="-38400" yWindow="-4600" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{B3937FB2-C38A-104D-BC16-7A680228C25F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ave. Accu" sheetId="3" r:id="rId1"/>
@@ -154,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -171,6 +171,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAE102A-3FBB-304A-8289-96B70467DC1A}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView zoomScale="117" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,6 +618,15 @@
       <c r="C4">
         <v>0.56115000000000004</v>
       </c>
+      <c r="D4">
+        <v>0.58774000000000004</v>
+      </c>
+      <c r="G4">
+        <v>0.55293000000000003</v>
+      </c>
+      <c r="L4">
+        <v>0.59018999999999999</v>
+      </c>
       <c r="M4">
         <v>0.60895999999999995</v>
       </c>
@@ -628,6 +638,12 @@
       <c r="B5">
         <v>0.46722000000000002</v>
       </c>
+      <c r="C5">
+        <v>0.53047999999999995</v>
+      </c>
+      <c r="D5">
+        <v>0.60226000000000002</v>
+      </c>
       <c r="M5">
         <v>0.65519000000000005</v>
       </c>
@@ -639,6 +655,12 @@
       <c r="B6">
         <v>0.58077999999999996</v>
       </c>
+      <c r="C6">
+        <v>0.62</v>
+      </c>
+      <c r="D6">
+        <v>0.55103999999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -647,6 +669,9 @@
       <c r="B7">
         <v>0.54493000000000003</v>
       </c>
+      <c r="C7">
+        <v>0.55222000000000004</v>
+      </c>
       <c r="G7">
         <v>0.56806999999999996</v>
       </c>
@@ -661,6 +686,9 @@
       <c r="B8">
         <v>0.53219000000000005</v>
       </c>
+      <c r="C8">
+        <v>0.58706999999999998</v>
+      </c>
       <c r="G8">
         <v>0.63688999999999996</v>
       </c>
@@ -674,6 +702,9 @@
       </c>
       <c r="B9">
         <v>0.51058999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.59443999999999997</v>
       </c>
       <c r="G9">
         <v>0.61533000000000004</v>
@@ -712,6 +743,15 @@
       <c r="C12">
         <v>0.53286999999999995</v>
       </c>
+      <c r="D12">
+        <v>0.53137999999999996</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.42048999999999997</v>
+      </c>
+      <c r="L12">
+        <v>0.51793</v>
+      </c>
       <c r="M12">
         <v>0.58425000000000005</v>
       </c>
@@ -723,6 +763,12 @@
       <c r="B13">
         <v>0.53935999999999995</v>
       </c>
+      <c r="C13">
+        <v>0.52034999999999998</v>
+      </c>
+      <c r="D13">
+        <v>0.56498999999999999</v>
+      </c>
       <c r="M13">
         <v>0.55552999999999997</v>
       </c>
@@ -734,6 +780,12 @@
       <c r="B14">
         <v>0.53144000000000002</v>
       </c>
+      <c r="C14">
+        <v>0.47632999999999998</v>
+      </c>
+      <c r="D14">
+        <v>0.46611000000000002</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -742,6 +794,9 @@
       <c r="B15">
         <v>0.52724000000000004</v>
       </c>
+      <c r="C15">
+        <v>0.33345999999999998</v>
+      </c>
       <c r="G15">
         <v>0.57262999999999997</v>
       </c>
@@ -756,6 +811,9 @@
       <c r="B16">
         <v>0.53017999999999998</v>
       </c>
+      <c r="C16">
+        <v>0.54239000000000004</v>
+      </c>
       <c r="G16">
         <v>0.58777999999999997</v>
       </c>
@@ -769,6 +827,9 @@
       </c>
       <c r="B17">
         <v>0.56423000000000001</v>
+      </c>
+      <c r="C17">
+        <v>0.59836999999999996</v>
       </c>
       <c r="G17">
         <v>0.53864000000000001</v>
@@ -804,6 +865,15 @@
       <c r="C20">
         <v>0.53779999999999994</v>
       </c>
+      <c r="D20">
+        <v>0.57235999999999998</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0.58916999999999997</v>
+      </c>
+      <c r="L20">
+        <v>0.67378000000000005</v>
+      </c>
       <c r="M20">
         <v>0.61304000000000003</v>
       </c>
@@ -815,6 +885,12 @@
       <c r="B21">
         <v>0.44168000000000002</v>
       </c>
+      <c r="C21">
+        <v>0.50815999999999995</v>
+      </c>
+      <c r="D21">
+        <v>0.62190000000000001</v>
+      </c>
       <c r="M21">
         <v>0.72369000000000006</v>
       </c>
@@ -826,6 +902,12 @@
       <c r="B22">
         <v>0.63505</v>
       </c>
+      <c r="C22">
+        <v>0.71087999999999996</v>
+      </c>
+      <c r="D22">
+        <v>0.62719000000000003</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -834,6 +916,9 @@
       <c r="B23">
         <v>0.52951000000000004</v>
       </c>
+      <c r="C23">
+        <v>0.66983999999999999</v>
+      </c>
       <c r="G23">
         <v>0.55161000000000004</v>
       </c>
@@ -848,6 +933,9 @@
       <c r="B24">
         <v>0.60621000000000003</v>
       </c>
+      <c r="C24">
+        <v>0.60570999999999997</v>
+      </c>
       <c r="G24">
         <v>0.64470000000000005</v>
       </c>
@@ -861,6 +949,9 @@
       </c>
       <c r="B25">
         <v>0.53915000000000002</v>
+      </c>
+      <c r="C25">
+        <v>0.57562999999999998</v>
       </c>
       <c r="G25">
         <v>0.64980000000000004</v>
@@ -896,6 +987,15 @@
       <c r="C28">
         <v>0.62932999999999995</v>
       </c>
+      <c r="D28">
+        <v>0.66247999999999996</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0.61924999999999997</v>
+      </c>
+      <c r="L28">
+        <v>0.47170000000000001</v>
+      </c>
       <c r="M28">
         <v>0.60172999999999999</v>
       </c>
@@ -907,6 +1007,12 @@
       <c r="B29">
         <v>0.43232999999999999</v>
       </c>
+      <c r="C29">
+        <v>0.56203999999999998</v>
+      </c>
+      <c r="D29">
+        <v>0.58281000000000005</v>
+      </c>
       <c r="M29">
         <v>0.61697999999999997</v>
       </c>
@@ -918,6 +1024,12 @@
       <c r="B30">
         <v>0.51104000000000005</v>
       </c>
+      <c r="C30">
+        <v>0.59660000000000002</v>
+      </c>
+      <c r="D30">
+        <v>0.46994000000000002</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
@@ -926,6 +1038,9 @@
       <c r="B31">
         <v>0.58182999999999996</v>
       </c>
+      <c r="C31">
+        <v>0.56513999999999998</v>
+      </c>
       <c r="G31">
         <v>0.56193000000000004</v>
       </c>
@@ -940,6 +1055,9 @@
       <c r="B32">
         <v>0.35610999999999998</v>
       </c>
+      <c r="C32">
+        <v>0.58294999999999997</v>
+      </c>
       <c r="G32">
         <v>0.65488999999999997</v>
       </c>
@@ -953,6 +1071,9 @@
       </c>
       <c r="B33">
         <v>0.37039</v>
+      </c>
+      <c r="C33">
+        <v>0.60489000000000004</v>
       </c>
       <c r="G33">
         <v>0.63090999999999997</v>
@@ -988,15 +1109,21 @@
       <c r="C36" s="5">
         <v>0.78342999999999996</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="5">
+        <v>0.96641999999999995</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="G36" s="5">
+        <v>0.94216</v>
+      </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
+      <c r="L36" s="5">
+        <v>1</v>
+      </c>
       <c r="M36" s="5">
         <v>0.96240999999999999</v>
       </c>
@@ -1008,8 +1135,12 @@
       <c r="B37" s="5">
         <v>0.37944</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="C37" s="5">
+        <v>0.86251999999999995</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.90824000000000005</v>
+      </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -1029,8 +1160,12 @@
       <c r="B38" s="5">
         <v>0.80374000000000001</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="C38" s="5">
+        <v>0.87126999999999999</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.91247999999999996</v>
+      </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -1048,7 +1183,9 @@
       <c r="B39" s="5">
         <v>0.76493</v>
       </c>
-      <c r="C39" s="5"/>
+      <c r="C39" s="5">
+        <v>0.89681</v>
+      </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -1071,7 +1208,9 @@
       <c r="B40" s="5">
         <v>0.75375999999999999</v>
       </c>
-      <c r="C40" s="5"/>
+      <c r="C40" s="5">
+        <v>0.85794000000000004</v>
+      </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -1094,7 +1233,9 @@
       <c r="B41" s="5">
         <v>0.58021999999999996</v>
       </c>
-      <c r="C41" s="5"/>
+      <c r="C41" s="5">
+        <v>0.86516999999999999</v>
+      </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -1119,7 +1260,7 @@
     <mergeCell ref="A35:M35"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:I10">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1131,6 +1272,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:I17">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:J9">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -1142,7 +1295,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:J9">
+  <conditionalFormatting sqref="B12:J17">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1154,7 +1307,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:J17">
+  <conditionalFormatting sqref="B4:K9">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1166,7 +1319,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:K9">
+  <conditionalFormatting sqref="B12:K17">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1178,19 +1331,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:K17">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B4:M9">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:M17">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1202,7 +1355,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:M17">
+  <conditionalFormatting sqref="B20:M25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1214,7 +1367,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:M25">
+  <conditionalFormatting sqref="B28:M33">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1226,7 +1379,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:M33">
+  <conditionalFormatting sqref="B36:M41">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1238,7 +1391,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:M41">
+  <conditionalFormatting sqref="A4:M41">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1258,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE2A6CD-50C2-294B-8E88-D07C665A6906}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView zoomScale="106" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1380,6 +1533,15 @@
       <c r="C4">
         <v>0.80798000000000003</v>
       </c>
+      <c r="D4">
+        <v>0.82708000000000004</v>
+      </c>
+      <c r="G4">
+        <v>0.80852999999999997</v>
+      </c>
+      <c r="L4">
+        <v>0.81181999999999999</v>
+      </c>
       <c r="M4">
         <v>0.83496999999999999</v>
       </c>
@@ -1391,6 +1553,12 @@
       <c r="B5">
         <v>0.74751000000000001</v>
       </c>
+      <c r="C5">
+        <v>0.76154999999999995</v>
+      </c>
+      <c r="D5">
+        <v>0.80989999999999995</v>
+      </c>
       <c r="M5">
         <v>0.83918999999999999</v>
       </c>
@@ -1402,6 +1570,12 @@
       <c r="B6">
         <v>0.78966999999999998</v>
       </c>
+      <c r="C6">
+        <v>0.81425000000000003</v>
+      </c>
+      <c r="D6">
+        <v>0.79261000000000004</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -1410,6 +1584,9 @@
       <c r="B7">
         <v>0.77458000000000005</v>
       </c>
+      <c r="C7">
+        <v>0.79478000000000004</v>
+      </c>
       <c r="G7">
         <v>0.81703000000000003</v>
       </c>
@@ -1424,6 +1601,9 @@
       <c r="B8">
         <v>0.76604000000000005</v>
       </c>
+      <c r="C8">
+        <v>0.82621</v>
+      </c>
       <c r="G8">
         <v>0.82876000000000005</v>
       </c>
@@ -1437,6 +1617,9 @@
       </c>
       <c r="B9">
         <v>0.74934999999999996</v>
+      </c>
+      <c r="C9">
+        <v>0.80589999999999995</v>
       </c>
       <c r="G9">
         <v>0.82594000000000001</v>
@@ -1472,6 +1655,15 @@
       <c r="C11">
         <v>0.79781000000000002</v>
       </c>
+      <c r="D11">
+        <v>0.81291000000000002</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.81337999999999999</v>
+      </c>
+      <c r="L11">
+        <v>0.77324000000000004</v>
+      </c>
       <c r="M11">
         <v>0.82260999999999995</v>
       </c>
@@ -1483,6 +1675,12 @@
       <c r="B12">
         <v>0.70669000000000004</v>
       </c>
+      <c r="C12">
+        <v>0.74922</v>
+      </c>
+      <c r="D12">
+        <v>0.79654000000000003</v>
+      </c>
       <c r="M12">
         <v>0.80837000000000003</v>
       </c>
@@ -1494,6 +1692,12 @@
       <c r="B13">
         <v>0.7651</v>
       </c>
+      <c r="C13">
+        <v>0.78115000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.78549999999999998</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -1502,6 +1706,9 @@
       <c r="B14">
         <v>0.75922000000000001</v>
       </c>
+      <c r="C14">
+        <v>0.76654999999999995</v>
+      </c>
       <c r="G14">
         <v>0.81159000000000003</v>
       </c>
@@ -1516,6 +1723,9 @@
       <c r="B15">
         <v>0.75761999999999996</v>
       </c>
+      <c r="C15">
+        <v>0.80366000000000004</v>
+      </c>
       <c r="G15">
         <v>0.81501000000000001</v>
       </c>
@@ -1529,6 +1739,9 @@
       </c>
       <c r="B16">
         <v>0.73048999999999997</v>
+      </c>
+      <c r="C16">
+        <v>0.79747999999999997</v>
       </c>
       <c r="G16">
         <v>0.80691000000000002</v>
@@ -1567,6 +1780,15 @@
       <c r="C19">
         <v>0.76907999999999999</v>
       </c>
+      <c r="D19">
+        <v>0.77468999999999999</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0.79591000000000001</v>
+      </c>
+      <c r="L19">
+        <v>0.72596000000000005</v>
+      </c>
       <c r="M19">
         <v>0.80810999999999999</v>
       </c>
@@ -1578,6 +1800,12 @@
       <c r="B20">
         <v>0.62216000000000005</v>
       </c>
+      <c r="C20">
+        <v>0.63907999999999998</v>
+      </c>
+      <c r="D20">
+        <v>0.71726000000000001</v>
+      </c>
       <c r="M20">
         <v>0.71682999999999997</v>
       </c>
@@ -1589,6 +1817,12 @@
       <c r="B21">
         <v>0.63446000000000002</v>
       </c>
+      <c r="C21">
+        <v>0.68174999999999997</v>
+      </c>
+      <c r="D21">
+        <v>0.69567000000000001</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -1597,6 +1831,9 @@
       <c r="B22">
         <v>0.67344999999999999</v>
       </c>
+      <c r="C22">
+        <v>0.66427999999999998</v>
+      </c>
       <c r="G22">
         <v>0.77917999999999998</v>
       </c>
@@ -1611,6 +1848,9 @@
       <c r="B23">
         <v>0.66134000000000004</v>
       </c>
+      <c r="C23">
+        <v>0.75619000000000003</v>
+      </c>
       <c r="G23">
         <v>0.78505000000000003</v>
       </c>
@@ -1624,6 +1864,9 @@
       </c>
       <c r="B24">
         <v>0.65822999999999998</v>
+      </c>
+      <c r="C24">
+        <v>0.71792</v>
       </c>
       <c r="G24">
         <v>0.74419000000000002</v>
@@ -1659,6 +1902,15 @@
       <c r="C27">
         <v>0.64458000000000004</v>
       </c>
+      <c r="D27">
+        <v>0.67135</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0.68972</v>
+      </c>
+      <c r="L27">
+        <v>0.63849999999999996</v>
+      </c>
       <c r="M27">
         <v>0.71284999999999998</v>
       </c>
@@ -1670,6 +1922,12 @@
       <c r="B28">
         <v>0.55747999999999998</v>
       </c>
+      <c r="C28">
+        <v>0.60738000000000003</v>
+      </c>
+      <c r="D28">
+        <v>0.65880000000000005</v>
+      </c>
       <c r="M28">
         <v>0.72067000000000003</v>
       </c>
@@ -1681,6 +1939,12 @@
       <c r="B29">
         <v>0.62407999999999997</v>
       </c>
+      <c r="C29">
+        <v>0.66410000000000002</v>
+      </c>
+      <c r="D29">
+        <v>0.67618999999999996</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
@@ -1689,6 +1953,9 @@
       <c r="B30">
         <v>0.61172000000000004</v>
       </c>
+      <c r="C30">
+        <v>0.63976</v>
+      </c>
       <c r="G30">
         <v>0.66552</v>
       </c>
@@ -1703,6 +1970,9 @@
       <c r="B31">
         <v>0.60773999999999995</v>
       </c>
+      <c r="C31">
+        <v>0.66022999999999998</v>
+      </c>
       <c r="G31">
         <v>0.67747000000000002</v>
       </c>
@@ -1716,6 +1986,9 @@
       </c>
       <c r="B32">
         <v>0.57147999999999999</v>
+      </c>
+      <c r="C32">
+        <v>0.67642000000000002</v>
       </c>
       <c r="G32">
         <v>0.69860999999999995</v>
@@ -1751,6 +2024,15 @@
       <c r="C35">
         <v>0.79578000000000004</v>
       </c>
+      <c r="D35">
+        <v>0.80879000000000001</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0.78644999999999998</v>
+      </c>
+      <c r="L35">
+        <v>0.73009000000000002</v>
+      </c>
       <c r="M35">
         <v>0.77483999999999997</v>
       </c>
@@ -1762,6 +2044,12 @@
       <c r="B36">
         <v>0.72396000000000005</v>
       </c>
+      <c r="C36">
+        <v>0.77490000000000003</v>
+      </c>
+      <c r="D36">
+        <v>0.82323000000000002</v>
+      </c>
       <c r="M36">
         <v>0.80001999999999995</v>
       </c>
@@ -1773,6 +2061,12 @@
       <c r="B37">
         <v>0.81701999999999997</v>
       </c>
+      <c r="C37">
+        <v>0.79208999999999996</v>
+      </c>
+      <c r="D37">
+        <v>0.79388999999999998</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
@@ -1781,6 +2075,9 @@
       <c r="B38">
         <v>0.78937000000000002</v>
       </c>
+      <c r="C38">
+        <v>0.78505000000000003</v>
+      </c>
       <c r="G38">
         <v>0.80859000000000003</v>
       </c>
@@ -1795,6 +2092,9 @@
       <c r="B39">
         <v>0.80191000000000001</v>
       </c>
+      <c r="C39">
+        <v>0.80896000000000001</v>
+      </c>
       <c r="G39">
         <v>0.79808000000000001</v>
       </c>
@@ -1808,6 +2108,9 @@
       </c>
       <c r="B40">
         <v>0.77164999999999995</v>
+      </c>
+      <c r="C40">
+        <v>0.81001999999999996</v>
       </c>
       <c r="G40">
         <v>0.80520000000000003</v>
@@ -1843,15 +2146,21 @@
       <c r="C43" s="5">
         <v>0.98170999999999997</v>
       </c>
-      <c r="D43" s="5"/>
+      <c r="D43" s="5">
+        <v>0.99670000000000003</v>
+      </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="G43" s="5">
+        <v>0.98134999999999994</v>
+      </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
+      <c r="L43" s="5">
+        <v>0.99831999999999999</v>
+      </c>
       <c r="M43" s="5">
         <v>0.99453000000000003</v>
       </c>
@@ -1863,8 +2172,12 @@
       <c r="B44" s="5">
         <v>0.92305999999999999</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="C44" s="5">
+        <v>0.97541999999999995</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0.98678999999999994</v>
+      </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -1884,8 +2197,12 @@
       <c r="B45" s="5">
         <v>0.98475000000000001</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="C45" s="5">
+        <v>0.98658000000000001</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.97616999999999998</v>
+      </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -1903,7 +2220,9 @@
       <c r="B46" s="5">
         <v>0.96226</v>
       </c>
-      <c r="C46" s="5"/>
+      <c r="C46" s="5">
+        <v>0.97704000000000002</v>
+      </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -1926,7 +2245,9 @@
       <c r="B47" s="5">
         <v>0.95936999999999995</v>
       </c>
-      <c r="C47" s="5"/>
+      <c r="C47" s="5">
+        <v>0.98916999999999999</v>
+      </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -1949,7 +2270,9 @@
       <c r="B48" s="5">
         <v>0.92049999999999998</v>
       </c>
-      <c r="C48" s="5"/>
+      <c r="C48" s="5">
+        <v>0.98546999999999996</v>
+      </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -1975,6 +2298,18 @@
     <mergeCell ref="A10:M10"/>
   </mergeCells>
   <conditionalFormatting sqref="B19:I24">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:J9">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -1986,7 +2321,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:J9">
+  <conditionalFormatting sqref="B19:J24">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -1998,7 +2333,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:J24">
+  <conditionalFormatting sqref="B4:K9">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2010,7 +2345,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:K9">
+  <conditionalFormatting sqref="B19:K24">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2022,7 +2357,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:K24">
+  <conditionalFormatting sqref="B4:M9">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -2034,19 +2369,79 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M9">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B19:M24">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:I9 B17:I17">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:I16">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:J16">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:K16">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:M16">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:M32">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2058,67 +2453,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:I9 B17:I17">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:I16">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:J16">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:K16">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:M16">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:M32">
+  <conditionalFormatting sqref="B35:M40">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2130,7 +2465,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:M40">
+  <conditionalFormatting sqref="B43:M48">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2142,7 +2477,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:M48">
+  <conditionalFormatting sqref="A4:M48">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2162,8 +2497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074045EE-D112-AF48-A364-D9EBDC864E02}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2284,6 +2619,15 @@
       <c r="C4">
         <v>0.59538999999999997</v>
       </c>
+      <c r="D4">
+        <v>0.63604000000000005</v>
+      </c>
+      <c r="G4">
+        <v>0.59511000000000003</v>
+      </c>
+      <c r="L4">
+        <v>0.54766999999999999</v>
+      </c>
       <c r="M4">
         <v>0.64641999999999999</v>
       </c>
@@ -2295,6 +2639,12 @@
       <c r="B5">
         <v>0.43615999999999999</v>
       </c>
+      <c r="C5">
+        <v>0.49968000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.59897</v>
+      </c>
       <c r="M5">
         <v>0.63570000000000004</v>
       </c>
@@ -2306,6 +2656,12 @@
       <c r="B6">
         <v>0.51749000000000001</v>
       </c>
+      <c r="C6">
+        <v>0.57425000000000004</v>
+      </c>
+      <c r="D6">
+        <v>0.57908999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -2314,6 +2670,9 @@
       <c r="B7">
         <v>0.53156000000000003</v>
       </c>
+      <c r="C7">
+        <v>0.54307000000000005</v>
+      </c>
       <c r="G7">
         <v>0.58748999999999996</v>
       </c>
@@ -2328,6 +2687,9 @@
       <c r="B8">
         <v>0.50627</v>
       </c>
+      <c r="C8">
+        <v>0.62292000000000003</v>
+      </c>
       <c r="G8">
         <v>0.60692000000000002</v>
       </c>
@@ -2341,6 +2703,9 @@
       </c>
       <c r="B9">
         <v>0.47392000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.58442000000000005</v>
       </c>
       <c r="G9">
         <v>0.62270999999999999</v>
@@ -2379,6 +2744,15 @@
       <c r="C12">
         <v>0.60633000000000004</v>
       </c>
+      <c r="D12">
+        <v>0.63044999999999995</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.63605</v>
+      </c>
+      <c r="L12">
+        <v>0.60216999999999998</v>
+      </c>
       <c r="M12">
         <v>0.67184999999999995</v>
       </c>
@@ -2390,6 +2764,12 @@
       <c r="B13">
         <v>0.36098999999999998</v>
       </c>
+      <c r="C13">
+        <v>0.50719999999999998</v>
+      </c>
+      <c r="D13">
+        <v>0.55347999999999997</v>
+      </c>
       <c r="M13">
         <v>0.62756999999999996</v>
       </c>
@@ -2401,6 +2781,12 @@
       <c r="B14">
         <v>0.46948000000000001</v>
       </c>
+      <c r="C14">
+        <v>0.54869000000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.51585000000000003</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -2409,6 +2795,9 @@
       <c r="B15">
         <v>0.51097999999999999</v>
       </c>
+      <c r="C15">
+        <v>0.45008999999999999</v>
+      </c>
       <c r="G15">
         <v>0.58897999999999995</v>
       </c>
@@ -2423,6 +2812,9 @@
       <c r="B16">
         <v>0.48319000000000001</v>
       </c>
+      <c r="C16">
+        <v>0.62616000000000005</v>
+      </c>
       <c r="G16">
         <v>0.60753999999999997</v>
       </c>
@@ -2436,6 +2828,9 @@
       </c>
       <c r="B17">
         <v>0.49795</v>
+      </c>
+      <c r="C17">
+        <v>0.55674000000000001</v>
       </c>
       <c r="G17">
         <v>0.60550999999999999</v>
@@ -2471,6 +2866,15 @@
       <c r="C20">
         <v>0.62653000000000003</v>
       </c>
+      <c r="D20">
+        <v>0.61382000000000003</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0.69238</v>
+      </c>
+      <c r="L20">
+        <v>0.54266999999999999</v>
+      </c>
       <c r="M20">
         <v>0.68176999999999999</v>
       </c>
@@ -2482,6 +2886,12 @@
       <c r="B21">
         <v>0.50629000000000002</v>
       </c>
+      <c r="C21">
+        <v>0.50824000000000003</v>
+      </c>
+      <c r="D21">
+        <v>0.62348000000000003</v>
+      </c>
       <c r="M21">
         <v>0.61604000000000003</v>
       </c>
@@ -2493,6 +2903,12 @@
       <c r="B22">
         <v>0.54296999999999995</v>
       </c>
+      <c r="C22">
+        <v>0.56933</v>
+      </c>
+      <c r="D22">
+        <v>0.65644999999999998</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
@@ -2501,6 +2917,9 @@
       <c r="B23">
         <v>0.54574</v>
       </c>
+      <c r="C23">
+        <v>0.56706000000000001</v>
+      </c>
       <c r="G23">
         <v>0.62321000000000004</v>
       </c>
@@ -2515,6 +2934,9 @@
       <c r="B24">
         <v>0.56264999999999998</v>
       </c>
+      <c r="C24">
+        <v>0.62665999999999999</v>
+      </c>
       <c r="G24">
         <v>0.60890999999999995</v>
       </c>
@@ -2528,6 +2950,9 @@
       </c>
       <c r="B25">
         <v>0.49167</v>
+      </c>
+      <c r="C25">
+        <v>0.61128000000000005</v>
       </c>
       <c r="G25">
         <v>0.65076999999999996</v>
@@ -2563,6 +2988,15 @@
       <c r="C28">
         <v>0.60816000000000003</v>
       </c>
+      <c r="D28">
+        <v>0.67640999999999996</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0.51415</v>
+      </c>
+      <c r="L28">
+        <v>0.54706999999999995</v>
+      </c>
       <c r="M28">
         <v>0.58316999999999997</v>
       </c>
@@ -2574,6 +3008,12 @@
       <c r="B29">
         <v>0.53391</v>
       </c>
+      <c r="C29">
+        <v>0.61746000000000001</v>
+      </c>
+      <c r="D29">
+        <v>0.66910999999999998</v>
+      </c>
       <c r="M29">
         <v>0.68047999999999997</v>
       </c>
@@ -2585,6 +3025,12 @@
       <c r="B30">
         <v>0.62414999999999998</v>
       </c>
+      <c r="C30">
+        <v>0.65552999999999995</v>
+      </c>
+      <c r="D30">
+        <v>0.59833000000000003</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
@@ -2593,6 +3039,9 @@
       <c r="B31">
         <v>0.63888</v>
       </c>
+      <c r="C31">
+        <v>0.64073000000000002</v>
+      </c>
       <c r="G31">
         <v>0.56872999999999996</v>
       </c>
@@ -2607,6 +3056,9 @@
       <c r="B32">
         <v>0.60104999999999997</v>
       </c>
+      <c r="C32">
+        <v>0.60916999999999999</v>
+      </c>
       <c r="G32">
         <v>0.61714000000000002</v>
       </c>
@@ -2620,6 +3072,9 @@
       </c>
       <c r="B33">
         <v>0.53059000000000001</v>
+      </c>
+      <c r="C33">
+        <v>0.64137999999999995</v>
       </c>
       <c r="G33">
         <v>0.65215000000000001</v>
@@ -2655,14 +3110,21 @@
       <c r="C36" s="5">
         <v>0.78152999999999995</v>
       </c>
+      <c r="D36">
+        <v>0.95096999999999998</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="G36" s="5">
+        <v>0.68947000000000003</v>
+      </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
+      <c r="L36" s="5">
+        <v>0.88183999999999996</v>
+      </c>
       <c r="M36" s="5">
         <v>0.77815000000000001</v>
       </c>
@@ -2674,8 +3136,12 @@
       <c r="B37" s="5">
         <v>0.27712999999999999</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="C37" s="5">
+        <v>0.54556000000000004</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.80905000000000005</v>
+      </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -2695,8 +3161,12 @@
       <c r="B38" s="5">
         <v>0.77154999999999996</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="C38" s="5">
+        <v>0.65251999999999999</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.54725999999999997</v>
+      </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -2714,7 +3184,9 @@
       <c r="B39" s="5">
         <v>0.57055</v>
       </c>
-      <c r="C39" s="5"/>
+      <c r="C39" s="5">
+        <v>0.51905999999999997</v>
+      </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -2737,7 +3209,9 @@
       <c r="B40" s="5">
         <v>0.42410999999999999</v>
       </c>
-      <c r="C40" s="5"/>
+      <c r="C40" s="5">
+        <v>0.82923999999999998</v>
+      </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -2760,7 +3234,9 @@
       <c r="B41" s="5">
         <v>0.27778999999999998</v>
       </c>
-      <c r="C41" s="5"/>
+      <c r="C41" s="5">
+        <v>0.79044000000000003</v>
+      </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -2785,6 +3261,102 @@
     <mergeCell ref="A35:M35"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:I17 B12:C14 E12:I14 D13:D14">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:J17 B12:C14 E12:J14 D13:D14">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:K17 B12:C14 E12:K14 D13:D14">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:M17 B12:C14 E12:M14 D13:D14">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:I10 B4:C6 E4:I6 D5:D6">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:J9 B4:C6 E4:J6 D5:D6">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:K9 B4:C6 E4:K6 D5:D6">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:M9 B4:C6 E4:M6 D5:D6">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:M25 B20:C22 E20:M22 D21:D22">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2796,7 +3368,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:J17 B12:C14 E12:J14 D13:D14">
+  <conditionalFormatting sqref="B31:M33 B28:C30 E28:M30 D29:D30">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:M41 B36:C38 E36:M38 D37:D38">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2808,7 +3392,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:K17 B12:C14 E12:K14 D13:D14">
+  <conditionalFormatting sqref="B4:M9">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2820,7 +3404,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:M17 B12:C14 E12:M14 D13:D14">
+  <conditionalFormatting sqref="B12:M17">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:M25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2832,55 +3428,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:I10 B4:C6 E4:I6 D5:D6">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:J9 B4:C6 E4:J6 D5:D6">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:K9 B4:C6 E4:K6 D5:D6">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:M9 B4:C6 E4:M6 D5:D6">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:M25 B20:C22 E20:M22 D21:D22">
+  <conditionalFormatting sqref="B28:M33">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2892,7 +3440,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:M33 B28:C30 E28:M30 D29:D30">
+  <conditionalFormatting sqref="B36:M41">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2904,7 +3452,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:M41 B36:C38 E36:M38 D37:D38">
+  <conditionalFormatting sqref="A4:M41">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2924,8 +3472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA1689E-B943-BD4C-84B0-B60A9AE2F67C}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3037,17 +3585,21 @@
       <c r="C3" s="6">
         <v>0.66052083333333333</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6">
+        <v>0.81517361111111108</v>
+      </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6">
-        <v>0.14583333333333334</v>
+        <v>1.4277314814814817</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="L3" s="6">
+        <v>2.4742939814814817</v>
+      </c>
       <c r="M3" s="6">
         <v>2.6406828703703704</v>
       </c>
@@ -3060,9 +3612,11 @@
         <v>0.46162037037037035</v>
       </c>
       <c r="C4" s="6">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>0.72340277777777784</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.98856481481481484</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6">
@@ -3085,9 +3639,11 @@
         <v>0.44526620370370368</v>
       </c>
       <c r="C5" s="6">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>0.72575231481481473</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.072175925925926</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6">
@@ -3107,10 +3663,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="6">
-        <v>1.038125</v>
+        <v>0.53812499999999996</v>
       </c>
       <c r="C6" s="6">
-        <v>0.14583333333333334</v>
+        <v>0.94401620370370365</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -3135,7 +3691,7 @@
         <v>0.46315972222222218</v>
       </c>
       <c r="C7" s="6">
-        <v>0.14583333333333334</v>
+        <v>0.76292824074074073</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -3157,10 +3713,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="6">
-        <v>1.0370601851851851</v>
+        <v>0.53706018518518517</v>
       </c>
       <c r="C8" s="6">
-        <v>0.14583333333333334</v>
+        <v>1.0485995370370371</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
